--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H2">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I2">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J2">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.714682989702133</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N2">
-        <v>0.714682989702133</v>
+        <v>2.542748</v>
       </c>
       <c r="O2">
-        <v>0.004769562457928523</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P2">
-        <v>0.004769562457928523</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q2">
-        <v>30.80050101297859</v>
+        <v>36.76633609694356</v>
       </c>
       <c r="R2">
-        <v>30.80050101297859</v>
+        <v>330.897024872492</v>
       </c>
       <c r="S2">
-        <v>0.00403070057387706</v>
+        <v>0.003760886512583502</v>
       </c>
       <c r="T2">
-        <v>0.00403070057387706</v>
+        <v>0.003818978470851379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H3">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I3">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J3">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.592331226131</v>
+        <v>163.6808596666667</v>
       </c>
       <c r="N3">
-        <v>148.592331226131</v>
+        <v>491.042579</v>
       </c>
       <c r="O3">
-        <v>0.9916570210347619</v>
+        <v>0.9855997337160513</v>
       </c>
       <c r="P3">
-        <v>0.9916570210347619</v>
+        <v>0.9884294716380667</v>
       </c>
       <c r="Q3">
-        <v>6403.843822222201</v>
+        <v>7100.128088754357</v>
       </c>
       <c r="R3">
-        <v>6403.843822222201</v>
+        <v>63901.1527987892</v>
       </c>
       <c r="S3">
-        <v>0.8380375682322035</v>
+        <v>0.7262833015561586</v>
       </c>
       <c r="T3">
-        <v>0.8380375682322035</v>
+        <v>0.73750172548453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.0967316373595</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H4">
-        <v>43.0967316373595</v>
+        <v>130.133629</v>
       </c>
       <c r="I4">
-        <v>0.8450881206465302</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J4">
-        <v>0.8450881206465302</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.535449533457636</v>
+        <v>0.05170233333333333</v>
       </c>
       <c r="N4">
-        <v>0.535449533457636</v>
+        <v>0.155107</v>
       </c>
       <c r="O4">
-        <v>0.003573416507309467</v>
+        <v>0.0003113241589126949</v>
       </c>
       <c r="P4">
-        <v>0.003573416507309467</v>
+        <v>0.0003122179961859592</v>
       </c>
       <c r="Q4">
-        <v>23.07612484877308</v>
+        <v>2.242737421478112</v>
       </c>
       <c r="R4">
-        <v>23.07612484877308</v>
+        <v>20.184636793303</v>
       </c>
       <c r="S4">
-        <v>0.003019851840449445</v>
+        <v>0.0002294131484155289</v>
       </c>
       <c r="T4">
-        <v>0.003019851840449445</v>
+        <v>0.000232956743522498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.08086100311754</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H5">
-        <v>4.08086100311754</v>
+        <v>130.133629</v>
       </c>
       <c r="I5">
-        <v>0.08002201152429697</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J5">
-        <v>0.08002201152429697</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.714682989702133</v>
+        <v>0.065874</v>
       </c>
       <c r="N5">
-        <v>0.714682989702133</v>
+        <v>0.197622</v>
       </c>
       <c r="O5">
-        <v>0.004769562457928523</v>
+        <v>0.0003966584546967229</v>
       </c>
       <c r="P5">
-        <v>0.004769562457928523</v>
+        <v>0.0003977972937537418</v>
       </c>
       <c r="Q5">
-        <v>2.916521942266888</v>
+        <v>2.857474225582</v>
       </c>
       <c r="R5">
-        <v>2.916521942266888</v>
+        <v>25.717268030238</v>
       </c>
       <c r="S5">
-        <v>0.0003816699819742104</v>
+        <v>0.0002922955457598538</v>
       </c>
       <c r="T5">
-        <v>0.0003816699819742104</v>
+        <v>0.0002968104441991857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.08086100311754</v>
+        <v>43.37787633333334</v>
       </c>
       <c r="H6">
-        <v>4.08086100311754</v>
+        <v>130.133629</v>
       </c>
       <c r="I6">
-        <v>0.08002201152429697</v>
+        <v>0.7368947826495649</v>
       </c>
       <c r="J6">
-        <v>0.08002201152429697</v>
+        <v>0.7461349005127409</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.592331226131</v>
+        <v>1.426327</v>
       </c>
       <c r="N6">
-        <v>148.592331226131</v>
+        <v>2.852654</v>
       </c>
       <c r="O6">
-        <v>0.9916570210347619</v>
+        <v>0.008588588270216057</v>
       </c>
       <c r="P6">
-        <v>0.9916570210347619</v>
+        <v>0.005742164542489129</v>
       </c>
       <c r="Q6">
-        <v>606.3846498630427</v>
+        <v>61.87103621689434</v>
       </c>
       <c r="R6">
-        <v>606.3846498630427</v>
+        <v>371.226217301366</v>
       </c>
       <c r="S6">
-        <v>0.07935438956539373</v>
+        <v>0.006328885886647464</v>
       </c>
       <c r="T6">
-        <v>0.07935438956539373</v>
+        <v>0.004284429369637915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>4.08086100311754</v>
+        <v>0.244247</v>
       </c>
       <c r="H7">
-        <v>4.08086100311754</v>
+        <v>0.732741</v>
       </c>
       <c r="I7">
-        <v>0.08002201152429697</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J7">
-        <v>0.08002201152429697</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.535449533457636</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N7">
-        <v>0.535449533457636</v>
+        <v>2.542748</v>
       </c>
       <c r="O7">
-        <v>0.003573416507309467</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P7">
-        <v>0.003573416507309467</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q7">
-        <v>2.185095120224747</v>
+        <v>0.2070195235853333</v>
       </c>
       <c r="R7">
-        <v>2.185095120224747</v>
+        <v>1.863175712268</v>
       </c>
       <c r="S7">
-        <v>0.0002859519769290312</v>
+        <v>2.117635360892723E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002859519769290312</v>
+        <v>2.150345091590514E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.77145649595081</v>
+        <v>0.244247</v>
       </c>
       <c r="H8">
-        <v>1.77145649595081</v>
+        <v>0.732741</v>
       </c>
       <c r="I8">
-        <v>0.03473666758693165</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J8">
-        <v>0.03473666758693165</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.714682989702133</v>
+        <v>163.6808596666667</v>
       </c>
       <c r="N8">
-        <v>0.714682989702133</v>
+        <v>491.042579</v>
       </c>
       <c r="O8">
-        <v>0.004769562457928523</v>
+        <v>0.9855997337160513</v>
       </c>
       <c r="P8">
-        <v>0.004769562457928523</v>
+        <v>0.9884294716380667</v>
       </c>
       <c r="Q8">
-        <v>1.266029824653389</v>
+        <v>39.97855893100434</v>
       </c>
       <c r="R8">
-        <v>1.266029824653389</v>
+        <v>359.807030379039</v>
       </c>
       <c r="S8">
-        <v>0.0001656787056361718</v>
+        <v>0.004089469853065891</v>
       </c>
       <c r="T8">
-        <v>0.0001656787056361718</v>
+        <v>0.004152637223643858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.77145649595081</v>
+        <v>0.244247</v>
       </c>
       <c r="H9">
-        <v>1.77145649595081</v>
+        <v>0.732741</v>
       </c>
       <c r="I9">
-        <v>0.03473666758693165</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J9">
-        <v>0.03473666758693165</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>148.592331226131</v>
+        <v>0.05170233333333333</v>
       </c>
       <c r="N9">
-        <v>148.592331226131</v>
+        <v>0.155107</v>
       </c>
       <c r="O9">
-        <v>0.9916570210347619</v>
+        <v>0.0003113241589126949</v>
       </c>
       <c r="P9">
-        <v>0.9916570210347619</v>
+        <v>0.0003122179961859592</v>
       </c>
       <c r="Q9">
-        <v>263.2248503990041</v>
+        <v>0.01262813980966667</v>
       </c>
       <c r="R9">
-        <v>263.2248503990041</v>
+        <v>0.113653258287</v>
       </c>
       <c r="S9">
-        <v>0.03444686029993142</v>
+        <v>1.291752340074548E-06</v>
       </c>
       <c r="T9">
-        <v>0.03444686029993142</v>
+        <v>1.311705195014724E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.77145649595081</v>
+        <v>0.244247</v>
       </c>
       <c r="H10">
-        <v>1.77145649595081</v>
+        <v>0.732741</v>
       </c>
       <c r="I10">
-        <v>0.03473666758693165</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J10">
-        <v>0.03473666758693165</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.535449533457636</v>
+        <v>0.065874</v>
       </c>
       <c r="N10">
-        <v>0.535449533457636</v>
+        <v>0.197622</v>
       </c>
       <c r="O10">
-        <v>0.003573416507309467</v>
+        <v>0.0003966584546967229</v>
       </c>
       <c r="P10">
-        <v>0.003573416507309467</v>
+        <v>0.0003977972937537418</v>
       </c>
       <c r="Q10">
-        <v>0.9485255542973599</v>
+        <v>0.016089526878</v>
       </c>
       <c r="R10">
-        <v>0.9485255542973599</v>
+        <v>0.144805741902</v>
       </c>
       <c r="S10">
-        <v>0.0001241285813640633</v>
+        <v>1.645823083098843E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001241285813640633</v>
+        <v>1.671245037614032E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.04768195522278</v>
+        <v>0.244247</v>
       </c>
       <c r="H11">
-        <v>2.04768195522278</v>
+        <v>0.732741</v>
       </c>
       <c r="I11">
-        <v>0.04015320024224129</v>
+        <v>0.004149219721932328</v>
       </c>
       <c r="J11">
-        <v>0.04015320024224129</v>
+        <v>0.004201247881411239</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.714682989702133</v>
+        <v>1.426327</v>
       </c>
       <c r="N11">
-        <v>0.714682989702133</v>
+        <v>2.852654</v>
       </c>
       <c r="O11">
-        <v>0.004769562457928523</v>
+        <v>0.008588588270216057</v>
       </c>
       <c r="P11">
-        <v>0.004769562457928523</v>
+        <v>0.005742164542489129</v>
       </c>
       <c r="Q11">
-        <v>1.463443461717725</v>
+        <v>0.3483760907689999</v>
       </c>
       <c r="R11">
-        <v>1.463443461717725</v>
+        <v>2.090256544614</v>
       </c>
       <c r="S11">
-        <v>0.0001915131964410805</v>
+        <v>3.563593983433712E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001915131964410805</v>
+        <v>2.412425661884719E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.04768195522278</v>
+        <v>7.648633666666666</v>
       </c>
       <c r="H12">
-        <v>2.04768195522278</v>
+        <v>22.945901</v>
       </c>
       <c r="I12">
-        <v>0.04015320024224129</v>
+        <v>0.129933475766617</v>
       </c>
       <c r="J12">
-        <v>0.04015320024224129</v>
+        <v>0.1315627458587987</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>148.592331226131</v>
+        <v>0.8475826666666667</v>
       </c>
       <c r="N12">
-        <v>148.592331226131</v>
+        <v>2.542748</v>
       </c>
       <c r="O12">
-        <v>0.9916570210347619</v>
+        <v>0.00510369540012338</v>
       </c>
       <c r="P12">
-        <v>0.9916570210347619</v>
+        <v>0.005118348529504506</v>
       </c>
       <c r="Q12">
-        <v>304.2698353362348</v>
+        <v>6.482849319549778</v>
       </c>
       <c r="R12">
-        <v>304.2698353362348</v>
+        <v>58.345643875948</v>
       </c>
       <c r="S12">
-        <v>0.03981820293723328</v>
+        <v>0.0006631408825921259</v>
       </c>
       <c r="T12">
-        <v>0.03981820293723328</v>
+        <v>0.0006733839868039576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.648633666666666</v>
+      </c>
+      <c r="H13">
+        <v>22.945901</v>
+      </c>
+      <c r="I13">
+        <v>0.129933475766617</v>
+      </c>
+      <c r="J13">
+        <v>0.1315627458587987</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N13">
+        <v>491.042579</v>
+      </c>
+      <c r="O13">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P13">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q13">
+        <v>1251.934933835409</v>
+      </c>
+      <c r="R13">
+        <v>11267.41440451868</v>
+      </c>
+      <c r="S13">
+        <v>0.1280623991163787</v>
+      </c>
+      <c r="T13">
+        <v>0.1300404953764657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.648633666666666</v>
+      </c>
+      <c r="H14">
+        <v>22.945901</v>
+      </c>
+      <c r="I14">
+        <v>0.129933475766617</v>
+      </c>
+      <c r="J14">
+        <v>0.1315627458587987</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.155107</v>
+      </c>
+      <c r="O14">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P14">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q14">
+        <v>0.3954522073785555</v>
+      </c>
+      <c r="R14">
+        <v>3.559069866407</v>
+      </c>
+      <c r="S14">
+        <v>4.045143005764506E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.107625688475675E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.648633666666666</v>
+      </c>
+      <c r="H15">
+        <v>22.945901</v>
+      </c>
+      <c r="I15">
+        <v>0.129933475766617</v>
+      </c>
+      <c r="J15">
+        <v>0.1315627458587987</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.065874</v>
+      </c>
+      <c r="N15">
+        <v>0.197622</v>
+      </c>
+      <c r="O15">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P15">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q15">
+        <v>0.503846094158</v>
+      </c>
+      <c r="R15">
+        <v>4.534614847422</v>
+      </c>
+      <c r="S15">
+        <v>5.153921171096039E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.233530426144145E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.648633666666666</v>
+      </c>
+      <c r="H16">
+        <v>22.945901</v>
+      </c>
+      <c r="I16">
+        <v>0.129933475766617</v>
+      </c>
+      <c r="J16">
+        <v>0.1315627458587987</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.426327</v>
+      </c>
+      <c r="N16">
+        <v>2.852654</v>
+      </c>
+      <c r="O16">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P16">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q16">
+        <v>10.90945271187567</v>
+      </c>
+      <c r="R16">
+        <v>65.456716271254</v>
+      </c>
+      <c r="S16">
+        <v>0.001115945125877569</v>
+      </c>
+      <c r="T16">
+        <v>0.0007554549343829027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.04768195522278</v>
-      </c>
-      <c r="H13">
-        <v>2.04768195522278</v>
-      </c>
-      <c r="I13">
-        <v>0.04015320024224129</v>
-      </c>
-      <c r="J13">
-        <v>0.04015320024224129</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.535449533457636</v>
-      </c>
-      <c r="N13">
-        <v>0.535449533457636</v>
-      </c>
-      <c r="O13">
-        <v>0.003573416507309467</v>
-      </c>
-      <c r="P13">
-        <v>0.003573416507309467</v>
-      </c>
-      <c r="Q13">
-        <v>1.096430347593657</v>
-      </c>
-      <c r="R13">
-        <v>1.096430347593657</v>
-      </c>
-      <c r="S13">
-        <v>0.0001434841085669275</v>
-      </c>
-      <c r="T13">
-        <v>0.0001434841085669275</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H17">
+        <v>16.224098</v>
+      </c>
+      <c r="I17">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J17">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8475826666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.542748</v>
+      </c>
+      <c r="O17">
+        <v>0.00510369540012338</v>
+      </c>
+      <c r="P17">
+        <v>0.005118348529504506</v>
+      </c>
+      <c r="Q17">
+        <v>4.583754749033778</v>
+      </c>
+      <c r="R17">
+        <v>41.253792741304</v>
+      </c>
+      <c r="S17">
+        <v>0.0004688795034451315</v>
+      </c>
+      <c r="T17">
+        <v>0.0004761219789773395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H18">
+        <v>16.224098</v>
+      </c>
+      <c r="I18">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J18">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N18">
+        <v>491.042579</v>
+      </c>
+      <c r="O18">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P18">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q18">
+        <v>885.1914359854159</v>
+      </c>
+      <c r="R18">
+        <v>7966.722923868741</v>
+      </c>
+      <c r="S18">
+        <v>0.09054762823997375</v>
+      </c>
+      <c r="T18">
+        <v>0.0919462583298135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H19">
+        <v>16.224098</v>
+      </c>
+      <c r="I19">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J19">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.155107</v>
+      </c>
+      <c r="O19">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P19">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q19">
+        <v>0.2796079076095555</v>
+      </c>
+      <c r="R19">
+        <v>2.516471168485999</v>
+      </c>
+      <c r="S19">
+        <v>2.86015339077502E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.904332312649079E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H20">
+        <v>16.224098</v>
+      </c>
+      <c r="I20">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J20">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.065874</v>
+      </c>
+      <c r="N20">
+        <v>0.197622</v>
+      </c>
+      <c r="O20">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P20">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q20">
+        <v>0.356248743884</v>
+      </c>
+      <c r="R20">
+        <v>3.206238694955999</v>
+      </c>
+      <c r="S20">
+        <v>3.644124593936708E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.700413007087599E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.408032666666666</v>
+      </c>
+      <c r="H21">
+        <v>16.224098</v>
+      </c>
+      <c r="I21">
+        <v>0.0918705891879434</v>
+      </c>
+      <c r="J21">
+        <v>0.09302257871513717</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.426327</v>
+      </c>
+      <c r="N21">
+        <v>2.852654</v>
+      </c>
+      <c r="O21">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P21">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q21">
+        <v>7.713623009348666</v>
+      </c>
+      <c r="R21">
+        <v>46.28173805609199</v>
+      </c>
+      <c r="S21">
+        <v>0.0007890386646774089</v>
+      </c>
+      <c r="T21">
+        <v>0.0005341509531489646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.186977</v>
+      </c>
+      <c r="H22">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J22">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8475826666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.542748</v>
+      </c>
+      <c r="O22">
+        <v>0.00510369540012338</v>
+      </c>
+      <c r="P22">
+        <v>0.005118348529504506</v>
+      </c>
+      <c r="Q22">
+        <v>1.853643797598667</v>
+      </c>
+      <c r="R22">
+        <v>11.121862785592</v>
+      </c>
+      <c r="S22">
+        <v>0.000189612147893693</v>
+      </c>
+      <c r="T22">
+        <v>0.0001283606419559257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.186977</v>
+      </c>
+      <c r="H23">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J23">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>163.6808596666667</v>
+      </c>
+      <c r="N23">
+        <v>491.042579</v>
+      </c>
+      <c r="O23">
+        <v>0.9855997337160513</v>
+      </c>
+      <c r="P23">
+        <v>0.9884294716380667</v>
+      </c>
+      <c r="Q23">
+        <v>357.9662754312277</v>
+      </c>
+      <c r="R23">
+        <v>2147.797652587366</v>
+      </c>
+      <c r="S23">
+        <v>0.03661693495047424</v>
+      </c>
+      <c r="T23">
+        <v>0.02478835522361373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.186977</v>
+      </c>
+      <c r="H24">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J24">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05170233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.155107</v>
+      </c>
+      <c r="O24">
+        <v>0.0003113241589126949</v>
+      </c>
+      <c r="P24">
+        <v>0.0003122179961859592</v>
+      </c>
+      <c r="Q24">
+        <v>0.1130718138463333</v>
+      </c>
+      <c r="R24">
+        <v>0.6784308830779999</v>
+      </c>
+      <c r="S24">
+        <v>1.156629419169617E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.829967457198968E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.186977</v>
+      </c>
+      <c r="H25">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J25">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.065874</v>
+      </c>
+      <c r="N25">
+        <v>0.197622</v>
+      </c>
+      <c r="O25">
+        <v>0.0003966584546967229</v>
+      </c>
+      <c r="P25">
+        <v>0.0003977972937537418</v>
+      </c>
+      <c r="Q25">
+        <v>0.144064922898</v>
+      </c>
+      <c r="R25">
+        <v>0.8643895373879998</v>
+      </c>
+      <c r="S25">
+        <v>1.473662820344266E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.976170184624643E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.186977</v>
+      </c>
+      <c r="H26">
+        <v>4.373953999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.03715193267394234</v>
+      </c>
+      <c r="J26">
+        <v>0.02507852703191198</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.426327</v>
+      </c>
+      <c r="N26">
+        <v>2.852654</v>
+      </c>
+      <c r="O26">
+        <v>0.008588588270216057</v>
+      </c>
+      <c r="P26">
+        <v>0.005742164542489129</v>
+      </c>
+      <c r="Q26">
+        <v>3.119344343478999</v>
+      </c>
+      <c r="R26">
+        <v>12.477377373916</v>
+      </c>
+      <c r="S26">
+        <v>0.0003190826531792779</v>
+      </c>
+      <c r="T26">
+        <v>0.0001440050287005001</v>
       </c>
     </row>
   </sheetData>
